--- a/mbs-perturbation/mega/elm/nearmiss/ELM_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/mega/elm/nearmiss/ELM_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.868421052631579</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.673469387755102</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8593139383412941</v>
+        <v>0.9085623678646934</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6739130434782609</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7654320987654321</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8240905057675244</v>
+        <v>0.9317460317460318</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7619047619047618</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9549689440993789</v>
+        <v>0.9408801696712619</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8292682926829269</v>
+        <v>0.7631578947368423</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9053030303030304</v>
+        <v>0.8558201058201057</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.95</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.76</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8977777777777777</v>
+        <v>0.9099025974025974</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9026315789473685</v>
+        <v>0.9256496857116053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7066341856900863</v>
+        <v>0.7548203397546167</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7919340574905476</v>
+        <v>0.8312488538419218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8882908392578012</v>
+        <v>0.9093822545009381</v>
       </c>
     </row>
   </sheetData>
